--- a/Bin_Port/crypto_portfolio.xlsx
+++ b/Bin_Port/crypto_portfolio.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brynne/Python/Documents/GitHub/Crypto_Bin/Bin_Port/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EE4F16-23EB-114E-8515-66C69626DCC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733D57D1-82C0-5E47-A420-1F0900CE8C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="115200" yWindow="12900" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{444880F1-18F8-AB4B-BFC8-D7A13FEAE346}"/>
+    <workbookView xWindow="24500" yWindow="9340" windowWidth="40240" windowHeight="26120" activeTab="1" xr2:uid="{444880F1-18F8-AB4B-BFC8-D7A13FEAE346}"/>
   </bookViews>
   <sheets>
     <sheet name="prices" sheetId="1" r:id="rId1"/>
     <sheet name="positions" sheetId="2" r:id="rId2"/>
     <sheet name="trades" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="196">
   <si>
     <t>symbol</t>
   </si>
@@ -620,13 +620,26 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>USD Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -652,13 +665,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -973,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62096B7-7E84-0647-8E34-3104394EFBA9}">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>52445.65</v>
+        <v>52427.3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1000,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3929.6</v>
+        <v>3909.47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1016,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>784.08</v>
+        <v>773.72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1024,7 +1041,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>217.92</v>
+        <v>217.91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1040,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>52460.38</v>
+        <v>52410.83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1048,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3927.91</v>
+        <v>3912.63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1064,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>782.52</v>
+        <v>773.88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1072,7 +1089,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>218.03</v>
+        <v>217.91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1080,7 +1097,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>494.84609999999998</v>
+        <v>495.60109999999997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1088,7 +1105,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>494.57810000000001</v>
+        <v>495.36829999999998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1096,7 +1113,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>7.4980000000000005E-2</v>
+        <v>7.4573E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1112,7 +1129,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>9.4354E-3</v>
+        <v>9.4561999999999997E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1120,7 +1137,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>4.156E-3</v>
+        <v>4.1520000000000003E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1128,7 +1145,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.4923000000000001E-2</v>
+        <v>1.4768E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,7 +1153,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2.8220999999999998</v>
+        <v>2.8115000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1144,7 +1161,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.95579999999999998</v>
+        <v>0.93320000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1152,7 +1169,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>73.783799999999999</v>
+        <v>72.218299999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1160,7 +1177,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.4224</v>
+        <v>0.41260000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1168,7 +1185,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1.2732000000000001</v>
+        <v>1.2518</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1176,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2.8200599999999998</v>
+        <v>2.8100100000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,7 +1201,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.9556</v>
+        <v>0.93210000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1192,7 +1209,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>73.636099999999999</v>
+        <v>72.3232</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1200,7 +1217,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.42246</v>
+        <v>0.41263</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1208,7 +1225,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1.2757000000000001</v>
+        <v>1.2605999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1216,7 +1233,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>34.850900000000003</v>
+        <v>34.673699999999997</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1224,7 +1241,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.14460000000000001</v>
+        <v>0.14280000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1232,7 +1249,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>255.1</v>
+        <v>251.61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1240,7 +1257,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>170.4</v>
+        <v>167.14</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1248,7 +1265,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.466</v>
+        <v>1.4370000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1256,7 +1273,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>2.16</v>
+        <v>2.0632000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1272,7 +1289,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>52444.04</v>
+        <v>52420.800000000003</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1280,7 +1297,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.30743280000000001</v>
+        <v>0.30454229999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1288,7 +1305,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>29.081199999999999</v>
+        <v>29.4695</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1296,7 +1313,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>25.187999999999999</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1304,7 +1321,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>25.259</v>
+        <v>26.038</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1312,7 +1329,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>63.356000000000002</v>
+        <v>62.606999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1320,7 +1337,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>63.494999999999997</v>
+        <v>62.640999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1328,7 +1345,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.14946899999999999</v>
+        <v>0.15010599999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1336,7 +1353,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>15.613</v>
+        <v>15.601000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1344,7 +1361,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>15.618</v>
+        <v>15.625999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1352,7 +1369,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>7.2324000000000002</v>
+        <v>7.4622000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1360,7 +1377,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1.7317</v>
+        <v>1.7101999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1368,7 +1385,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2.1637</v>
+        <v>2.1360999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1376,7 +1393,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1.2809999999999999</v>
+        <v>1.2549999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1384,7 +1401,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1.2844</v>
+        <v>1.2547999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1392,7 +1409,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.13089999999999999</v>
+        <v>0.1285</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1400,7 +1417,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.13086999999999999</v>
+        <v>0.12873000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1408,7 +1425,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.14949999999999999</v>
+        <v>0.1502</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1416,7 +1433,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>494.10129999999998</v>
+        <v>497.28100000000001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1432,7 +1449,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>3929.8</v>
+        <v>3914.42</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1440,7 +1457,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>1.466</v>
+        <v>1.4393</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1448,7 +1465,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>5.5739999999999998</v>
+        <v>5.6078000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1456,7 +1473,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>5.5824999999999996</v>
+        <v>5.6155999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1464,7 +1481,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.313</v>
+        <v>0.33639999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1472,7 +1489,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.31408999999999998</v>
+        <v>0.33571000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1480,7 +1497,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>9.1006999999999998</v>
+        <v>9.4305000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1488,7 +1505,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>9.1011000000000006</v>
+        <v>9.4393999999999991</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1496,7 +1513,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>1.637</v>
+        <v>1.6375</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1504,7 +1521,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>1.6347799999999999</v>
+        <v>1.6390100000000001</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1512,7 +1529,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>1.061E-4</v>
+        <v>1.07E-4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1520,7 +1537,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>5.384E-5</v>
+        <v>5.3619999999999998E-5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1528,7 +1545,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>32.630000000000003</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1536,7 +1553,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>32.61</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1544,7 +1561,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>6.2232000000000003</v>
+        <v>6.1093999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1552,7 +1569,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>6.2356999999999996</v>
+        <v>6.1098999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1560,7 +1577,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.3075</v>
+        <v>0.30459999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1568,7 +1585,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>2.238</v>
+        <v>2.2069999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1576,7 +1593,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>2.2349999999999999</v>
+        <v>2.2090000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1584,7 +1601,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>1.2305E-2</v>
+        <v>1.2335E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1608,7 +1625,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>510.61</v>
+        <v>501.12</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1616,7 +1633,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>510.27</v>
+        <v>501.14</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1624,7 +1641,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>1.0375000000000001</v>
+        <v>1.0208999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1632,7 +1649,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>24.1675</v>
+        <v>23.876300000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1640,7 +1657,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>24.19725</v>
+        <v>23.84376</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1648,7 +1665,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>3622.6664999999998</v>
+        <v>3566.6194</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1656,7 +1673,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>3618.38</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1664,7 +1681,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0.99970000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1672,7 +1689,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.12989999999999999</v>
+        <v>0.13067000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1680,7 +1697,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.13</v>
+        <v>0.13039999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1688,7 +1705,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>10.855700000000001</v>
+        <v>11.150399999999999</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1696,7 +1713,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>10.8331</v>
+        <v>11.138999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1704,7 +1721,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>1.6999</v>
+        <v>1.7662</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1712,7 +1729,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1.7010000000000001</v>
+        <v>1.7656000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1720,7 +1737,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.99980000000000002</v>
+        <v>0.99960000000000004</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1728,7 +1745,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>28.968499999999999</v>
+        <v>28.654299999999999</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1736,7 +1753,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>28.9192</v>
+        <v>28.640899999999998</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1744,7 +1761,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>162.09469999999999</v>
+        <v>183.8785</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1752,7 +1769,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>162.06370000000001</v>
+        <v>183.8527</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1760,7 +1777,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>6.6469000000000001E-4</v>
+        <v>6.6140999999999997E-4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1768,7 +1785,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>2.8499999999999998E-6</v>
+        <v>2.8700000000000001E-6</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1776,7 +1793,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>5.5175000000000005E-4</v>
+        <v>5.4642999999999998E-4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1784,7 +1801,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>177.65100000000001</v>
+        <v>178.703</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1792,7 +1809,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>178.10400000000001</v>
+        <v>178.77199999999999</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1800,7 +1817,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>1825.69</v>
+        <v>1821.26</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1808,7 +1825,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>1823.01</v>
+        <v>1823.39</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1816,7 +1833,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>0.4577</v>
+        <v>0.47910000000000003</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1824,7 +1841,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>0.45779999999999998</v>
+        <v>0.4768</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1832,7 +1849,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>105.03</v>
+        <v>101.88200000000001</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1840,7 +1857,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>105.113</v>
+        <v>102.111</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1848,7 +1865,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>52485.17</v>
+        <v>52447.47</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1856,7 +1873,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>0.13007199999999999</v>
+        <v>0.130769</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1864,7 +1881,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>104.83</v>
+        <v>110.23</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1872,7 +1889,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>104.76</v>
+        <v>109.88</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1880,7 +1897,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>408.03</v>
+        <v>402.77</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1888,7 +1905,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>408.53</v>
+        <v>402.02</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1896,7 +1913,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>1.0510999999999999</v>
+        <v>1.0202</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1904,7 +1921,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>13.646000000000001</v>
+        <v>13.551</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1912,7 +1929,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>0.1226</v>
+        <v>0.11990000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1920,7 +1937,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>5.9700000000000003E-2</v>
+        <v>5.7799999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1932,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB36789A-62CA-BD4D-A492-76AB34E3B4A3}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="117" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1976,9 +1993,9 @@
         <f>_xlfn.CONCAT(A2,"USD")</f>
         <v>BTCUSD</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <f>IF(A2="USD",D2,D2*(VLOOKUP(E2,prices!A:B,2,FALSE)))</f>
-        <v>594.48088296700007</v>
+        <v>594.27288241400004</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1999,9 +2016,9 @@
         <f t="shared" ref="E3:E61" si="1">_xlfn.CONCAT(A3,"USD")</f>
         <v>ETHUSD</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <f>IF(A3="USD",D3,D3*(VLOOKUP(E3,prices!A:B,2,FALSE)))</f>
-        <v>342.62885798400004</v>
+        <v>340.8736872513</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2009,22 +2026,22 @@
         <v>124</v>
       </c>
       <c r="B4">
-        <v>116.14100000000001</v>
+        <v>240.18799999999999</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>116.14100000000001</v>
+        <v>240.18799999999999</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
         <v>USDUSD</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <f>IF(A4="USD",D4,D4*(VLOOKUP(E4,prices!A:B,2,FALSE)))</f>
-        <v>116.14100000000001</v>
+        <v>240.18799999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2045,7 +2062,7 @@
         <f t="shared" si="1"/>
         <v>XRPUSD</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <f>IF(A5="USD",D5,D5*(VLOOKUP(E5,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2068,7 +2085,7 @@
         <f t="shared" si="1"/>
         <v>USDTUSD</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f>IF(A6="USD",D6,D6*(VLOOKUP(E6,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2091,7 +2108,7 @@
         <f t="shared" si="1"/>
         <v>BCHUSD</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f>IF(A7="USD",D7,D7*(VLOOKUP(E7,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2114,9 +2131,9 @@
         <f t="shared" si="1"/>
         <v>LTCUSD</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f>IF(A8="USD",D8,D8*(VLOOKUP(E8,prices!A:B,2,FALSE)))</f>
-        <v>48.153782399999997</v>
+        <v>48.151572700000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2137,9 +2154,9 @@
         <f t="shared" si="1"/>
         <v>ADAUSD</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f>IF(A9="USD",D9,D9*(VLOOKUP(E9,prices!A:B,2,FALSE)))</f>
-        <v>73.017039929999996</v>
+        <v>72.742782950000006</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2160,7 +2177,7 @@
         <f t="shared" si="1"/>
         <v>XLMUSD</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <f>IF(A10="USD",D10,D10*(VLOOKUP(E10,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2183,7 +2200,7 @@
         <f t="shared" si="1"/>
         <v>BATUSD</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <f>IF(A11="USD",D11,D11*(VLOOKUP(E11,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2206,7 +2223,7 @@
         <f t="shared" si="1"/>
         <v>ETCUSD</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <f>IF(A12="USD",D12,D12*(VLOOKUP(E12,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2229,7 +2246,7 @@
         <f t="shared" si="1"/>
         <v>ZRXUSD</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f>IF(A13="USD",D13,D13*(VLOOKUP(E13,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2239,22 +2256,22 @@
         <v>134</v>
       </c>
       <c r="B14">
-        <v>9.5901470000000003E-2</v>
+        <v>5.6301399999999996E-3</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>9.5901470000000003E-2</v>
+        <v>9.5630140000000002E-2</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
         <v>BNBUSD</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f>IF(A14="USD",D14,D14*(VLOOKUP(E14,prices!A:B,2,FALSE)))</f>
-        <v>47.456468413766999</v>
+        <v>47.394402577153997</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2275,7 +2292,7 @@
         <f t="shared" si="1"/>
         <v>LINKUSD</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <f>IF(A15="USD",D15,D15*(VLOOKUP(E15,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2298,7 +2315,7 @@
         <f t="shared" si="1"/>
         <v>REPUSD</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <f>IF(A16="USD",D16,D16*(VLOOKUP(E16,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2321,7 +2338,7 @@
         <f t="shared" si="1"/>
         <v>RVNUSD</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <f>IF(A17="USD",D17,D17*(VLOOKUP(E17,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2344,9 +2361,9 @@
         <f t="shared" si="1"/>
         <v>DASHUSD</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <f>IF(A18="USD",D18,D18*(VLOOKUP(E18,prices!A:B,2,FALSE)))</f>
-        <v>51.650097000000002</v>
+        <v>50.943476700000005</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2354,11 +2371,11 @@
         <v>139</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>0.30618000000000001</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>0.30618000000000001</v>
@@ -2367,9 +2384,9 @@
         <f t="shared" si="1"/>
         <v>ZECUSD</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <f>IF(A19="USD",D19,D19*(VLOOKUP(E19,prices!A:B,2,FALSE)))</f>
-        <v>52.173072000000005</v>
+        <v>51.174925199999997</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2380,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>73.771000000000001</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>73.771000000000001</v>
+        <v>0</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
         <v>ALGOUSD</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <f>IF(A20="USD",D20,D20*(VLOOKUP(E20,prices!A:B,2,FALSE)))</f>
-        <v>108.148286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2400,22 +2417,22 @@
         <v>141</v>
       </c>
       <c r="B21">
-        <v>22.08</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>22.08</v>
+        <v>0</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
         <v>IOTAUSD</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <f>IF(A21="USD",D21,D21*(VLOOKUP(E21,prices!A:B,2,FALSE)))</f>
-        <v>47.692799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2436,7 +2453,7 @@
         <f t="shared" si="1"/>
         <v>BUSDUSD</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <f>IF(A22="USD",D22,D22*(VLOOKUP(E22,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2459,9 +2476,9 @@
         <f t="shared" si="1"/>
         <v>DOGEUSD</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <f>IF(A23="USD",D23,D23*(VLOOKUP(E23,prices!A:B,2,FALSE)))</f>
-        <v>0.25952999999999998</v>
+        <v>0.25708239999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2482,7 +2499,7 @@
         <f t="shared" si="1"/>
         <v>WAVESUSD</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <f>IF(A24="USD",D24,D24*(VLOOKUP(E24,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2505,9 +2522,9 @@
         <f t="shared" si="1"/>
         <v>ATOMUSD</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <f>IF(A25="USD",D25,D25*(VLOOKUP(E25,prices!A:B,2,FALSE)))</f>
-        <v>1.8500701960000001E-2</v>
+        <v>1.9071272720000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2528,9 +2545,9 @@
         <f t="shared" si="1"/>
         <v>NEOUSD</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <f>IF(A26="USD",D26,D26*(VLOOKUP(E26,prices!A:B,2,FALSE)))</f>
-        <v>50.415030000000002</v>
+        <v>49.736954000000004</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2551,9 +2568,9 @@
         <f t="shared" si="1"/>
         <v>VETUSD</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <f>IF(A27="USD",D27,D27*(VLOOKUP(E27,prices!A:B,2,FALSE)))</f>
-        <v>48.886499999999998</v>
+        <v>49.115400000000001</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2561,22 +2578,22 @@
         <v>148</v>
       </c>
       <c r="B28">
+        <v>5.3399999999999997E-4</v>
+      </c>
+      <c r="C28">
+        <v>4.4610000000000003</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
         <v>4.4615340000000003</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>4.4615340000000003</v>
-      </c>
       <c r="E28" t="str">
         <f t="shared" si="1"/>
         <v>QTUMUSD</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <f>IF(A28="USD",D28,D28*(VLOOKUP(E28,prices!A:B,2,FALSE)))</f>
-        <v>69.680238012000004</v>
+        <v>69.715930284000009</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2597,7 +2614,7 @@
         <f t="shared" si="1"/>
         <v>NANOUSD</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <f>IF(A29="USD",D29,D29*(VLOOKUP(E29,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2620,7 +2637,7 @@
         <f t="shared" si="1"/>
         <v>EOSUSD</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <f>IF(A30="USD",D30,D30*(VLOOKUP(E30,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2643,7 +2660,7 @@
         <f t="shared" si="1"/>
         <v>ICXUSD</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <f>IF(A31="USD",D31,D31*(VLOOKUP(E31,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2666,9 +2683,9 @@
         <f t="shared" si="1"/>
         <v>ENJUSD</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <f>IF(A32="USD",D32,D32*(VLOOKUP(E32,prices!A:B,2,FALSE)))</f>
-        <v>25.964399999999998</v>
+        <v>25.633199999999999</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2689,7 +2706,7 @@
         <f t="shared" si="1"/>
         <v>ONTUSD</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <f>IF(A33="USD",D33,D33*(VLOOKUP(E33,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2712,7 +2729,7 @@
         <f t="shared" si="1"/>
         <v>ZILUSD</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <f>IF(A34="USD",D34,D34*(VLOOKUP(E34,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2735,7 +2752,7 @@
         <f t="shared" si="1"/>
         <v>USDCUSD</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <f>IF(A35="USD",D35,D35*(VLOOKUP(E35,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2758,7 +2775,7 @@
         <f t="shared" si="1"/>
         <v>XTZUSD</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <f>IF(A36="USD",D36,D36*(VLOOKUP(E36,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2781,7 +2798,7 @@
         <f t="shared" si="1"/>
         <v>HBARUSD</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <f>IF(A37="USD",D37,D37*(VLOOKUP(E37,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2804,7 +2821,7 @@
         <f t="shared" si="1"/>
         <v>OMGUSD</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <f>IF(A38="USD",D38,D38*(VLOOKUP(E38,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2827,9 +2844,9 @@
         <f t="shared" si="1"/>
         <v>MATICUSD</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <f>IF(A39="USD",D39,D39*(VLOOKUP(E39,prices!A:B,2,FALSE)))</f>
-        <v>6.2860799999999994E-2</v>
+        <v>6.2879999999999991E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2850,9 +2867,9 @@
         <f t="shared" si="1"/>
         <v>ONEUSD</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <f>IF(A40="USD",D40,D40*(VLOOKUP(E40,prices!A:B,2,FALSE)))</f>
-        <v>9.8279999999999999E-3</v>
+        <v>9.858239999999999E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2873,7 +2890,7 @@
         <f t="shared" si="1"/>
         <v>VTHOUSD</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <f>IF(A41="USD",D41,D41*(VLOOKUP(E41,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2896,7 +2913,7 @@
         <f t="shared" si="1"/>
         <v>KNCUSD</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <f>IF(A42="USD",D42,D42*(VLOOKUP(E42,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2919,7 +2936,7 @@
         <f t="shared" si="1"/>
         <v>COMPUSD</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <f>IF(A43="USD",D43,D43*(VLOOKUP(E43,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -2942,9 +2959,9 @@
         <f t="shared" si="1"/>
         <v>MANAUSD</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <f>IF(A44="USD",D44,D44*(VLOOKUP(E44,prices!A:B,2,FALSE)))</f>
-        <v>57.975500000000011</v>
+        <v>57.047891999999997</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2952,11 +2969,11 @@
         <v>165</v>
       </c>
       <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <v>1.08</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
       <c r="D45">
         <f t="shared" si="0"/>
         <v>1.08</v>
@@ -2965,9 +2982,9 @@
         <f t="shared" si="1"/>
         <v>HNTUSD</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <f>IF(A45="USD",D45,D45*(VLOOKUP(E45,prices!A:B,2,FALSE)))</f>
-        <v>26.100900000000003</v>
+        <v>25.786404000000001</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2988,7 +3005,7 @@
         <f t="shared" si="1"/>
         <v>MKRUSD</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <f>IF(A46="USD",D46,D46*(VLOOKUP(E46,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -3011,7 +3028,7 @@
         <f t="shared" si="1"/>
         <v>DAIUSD</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <f>IF(A47="USD",D47,D47*(VLOOKUP(E47,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -3034,9 +3051,9 @@
         <f t="shared" si="1"/>
         <v>BANDUSD</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <f>IF(A48="USD",D48,D48*(VLOOKUP(E48,prices!A:B,2,FALSE)))</f>
-        <v>51.565556000000001</v>
+        <v>53.021639999999998</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3057,7 +3074,7 @@
         <f t="shared" si="1"/>
         <v>STORJUSD</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <f>IF(A49="USD",D49,D49*(VLOOKUP(E49,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -3080,7 +3097,7 @@
         <f t="shared" si="1"/>
         <v>SOLUSD</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <f>IF(A50="USD",D50,D50*(VLOOKUP(E50,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -3103,7 +3120,7 @@
         <f t="shared" si="1"/>
         <v>UNIUSD</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <f>IF(A51="USD",D51,D51*(VLOOKUP(E51,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -3126,7 +3143,7 @@
         <f t="shared" si="1"/>
         <v>EGLDUSD</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <f>IF(A52="USD",D52,D52*(VLOOKUP(E52,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -3149,7 +3166,7 @@
         <f t="shared" si="1"/>
         <v>PAXGUSD</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <f>IF(A53="USD",D53,D53*(VLOOKUP(E53,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -3159,22 +3176,22 @@
         <v>174</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="1"/>
         <v>OXTUSD</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <f>IF(A54="USD",D54,D54*(VLOOKUP(E54,prices!A:B,2,FALSE)))</f>
-        <v>0</v>
+        <v>28.608000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3195,7 +3212,7 @@
         <f t="shared" si="1"/>
         <v>ZENUSD</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <f>IF(A55="USD",D55,D55*(VLOOKUP(E55,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -3218,7 +3235,7 @@
         <f t="shared" si="1"/>
         <v>FILUSD</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <f>IF(A56="USD",D56,D56*(VLOOKUP(E56,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -3241,7 +3258,7 @@
         <f t="shared" si="1"/>
         <v>AAVEUSD</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <f>IF(A57="USD",D57,D57*(VLOOKUP(E57,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -3251,22 +3268,22 @@
         <v>178</v>
       </c>
       <c r="B58">
+        <v>1.47E-3</v>
+      </c>
+      <c r="C58">
+        <v>103.28</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
         <v>103.28147</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>103.28147</v>
-      </c>
       <c r="E58" t="str">
         <f t="shared" si="1"/>
         <v>GRTUSD</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <f>IF(A58="USD",D58,D58*(VLOOKUP(E58,prices!A:B,2,FALSE)))</f>
-        <v>108.55915311699999</v>
+        <v>105.367755694</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3287,7 +3304,7 @@
         <f t="shared" si="1"/>
         <v>SUSHIUSD</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <f>IF(A59="USD",D59,D59*(VLOOKUP(E59,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -3310,7 +3327,7 @@
         <f t="shared" si="1"/>
         <v>AMPUSD</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <f>IF(A60="USD",D60,D60*(VLOOKUP(E60,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -3333,7 +3350,7 @@
         <f t="shared" si="1"/>
         <v>ANKRUSD</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <f>IF(A61="USD",D61,D61*(VLOOKUP(E61,prices!A:B,2,FALSE)))</f>
         <v>0</v>
       </c>
@@ -3345,15 +3362,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC2EF08-058C-5148-AB25-EAD9C9F448EB}">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:J42"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3393,8 +3413,11 @@
       <c r="M1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3422,8 +3445,8 @@
       <c r="I2" t="s">
         <v>134</v>
       </c>
-      <c r="J2">
-        <v>1629916002152</v>
+      <c r="J2" s="1">
+        <v>44433.768541666665</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3434,8 +3457,12 @@
       <c r="M2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="2">
+        <f>IF(K2=1,G2*-1,G2)</f>
+        <v>-74.9542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3463,8 +3490,8 @@
       <c r="I3" t="s">
         <v>134</v>
       </c>
-      <c r="J3">
-        <v>1630964232479</v>
+      <c r="J3" s="1">
+        <v>44445.900833333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3475,8 +3502,12 @@
       <c r="M3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N66" si="0">IF(K3=1,G3*-1,G3)</f>
+        <v>79.664000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3504,8 +3535,8 @@
       <c r="I4" t="s">
         <v>134</v>
       </c>
-      <c r="J4">
-        <v>1630475528921</v>
+      <c r="J4" s="1">
+        <v>44440.244537037041</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3516,8 +3547,12 @@
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>57.059600000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3545,8 +3580,8 @@
       <c r="I5" t="s">
         <v>134</v>
       </c>
-      <c r="J5">
-        <v>1630540446572</v>
+      <c r="J5" s="1">
+        <v>44440.99590277778</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3557,8 +3592,12 @@
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
+        <v>30.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3586,8 +3625,8 @@
       <c r="I6" t="s">
         <v>134</v>
       </c>
-      <c r="J6">
-        <v>1630658934724</v>
+      <c r="J6" s="1">
+        <v>44442.367291666669</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3598,8 +3637,12 @@
       <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>62.242100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3627,8 +3670,8 @@
       <c r="I7" t="s">
         <v>134</v>
       </c>
-      <c r="J7">
-        <v>1630675563311</v>
+      <c r="J7" s="1">
+        <v>44442.559756944444</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3639,8 +3682,12 @@
       <c r="M7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>82.379499999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3668,8 +3715,8 @@
       <c r="I8" t="s">
         <v>134</v>
       </c>
-      <c r="J8">
-        <v>1630675563336</v>
+      <c r="J8" s="1">
+        <v>44442.559756944444</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3680,8 +3727,12 @@
       <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>81.876199999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3709,8 +3760,8 @@
       <c r="I9" t="s">
         <v>134</v>
       </c>
-      <c r="J9">
-        <v>1630878581136</v>
+      <c r="J9" s="1">
+        <v>44444.909502314818</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3721,8 +3772,12 @@
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.998800000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3750,8 +3805,8 @@
       <c r="I10" t="s">
         <v>129</v>
       </c>
-      <c r="J10">
-        <v>1629423615845</v>
+      <c r="J10" s="1">
+        <v>44428.069618055553</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -3762,8 +3817,12 @@
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
+        <v>-19.954699999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3791,8 +3850,8 @@
       <c r="I11" t="s">
         <v>124</v>
       </c>
-      <c r="J11">
-        <v>1629675804648</v>
+      <c r="J11" s="1">
+        <v>44430.98847222222</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3803,8 +3862,12 @@
       <c r="M11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
+        <v>21.707999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3832,8 +3895,8 @@
       <c r="I12" t="s">
         <v>129</v>
       </c>
-      <c r="J12">
-        <v>1629818465061</v>
+      <c r="J12" s="1">
+        <v>44432.639641203707</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -3844,8 +3907,12 @@
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3873,8 +3940,8 @@
       <c r="I13" t="s">
         <v>134</v>
       </c>
-      <c r="J13">
-        <v>1630018783798</v>
+      <c r="J13" s="1">
+        <v>44434.958136574074</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -3885,8 +3952,12 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="2">
+        <f t="shared" si="0"/>
+        <v>-24.8918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3914,8 +3985,8 @@
       <c r="I14" t="s">
         <v>134</v>
       </c>
-      <c r="J14">
-        <v>1630560354579</v>
+      <c r="J14" s="1">
+        <v>44441.226319444446</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -3926,8 +3997,12 @@
       <c r="M14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="2">
+        <f t="shared" si="0"/>
+        <v>86.067400000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3955,8 +4030,8 @@
       <c r="I15" t="s">
         <v>134</v>
       </c>
-      <c r="J15">
-        <v>1630602137498</v>
+      <c r="J15" s="1">
+        <v>44441.709918981483</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3967,8 +4042,12 @@
       <c r="M15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="2">
+        <f t="shared" si="0"/>
+        <v>-24.843800000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3996,8 +4075,8 @@
       <c r="I16" t="s">
         <v>134</v>
       </c>
-      <c r="J16">
-        <v>1630778766890</v>
+      <c r="J16" s="1">
+        <v>44443.754236111112</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4008,8 +4087,12 @@
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.938000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4037,8 +4120,8 @@
       <c r="I17" t="s">
         <v>134</v>
       </c>
-      <c r="J17">
-        <v>1630909227246</v>
+      <c r="J17" s="1">
+        <v>44445.264201388891</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4049,8 +4132,12 @@
       <c r="M17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="2">
+        <f t="shared" si="0"/>
+        <v>-26.038799999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -4078,8 +4165,8 @@
       <c r="I18" t="s">
         <v>134</v>
       </c>
-      <c r="J18">
-        <v>1630909239368</v>
+      <c r="J18" s="1">
+        <v>44445.264340277776</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4090,8 +4177,12 @@
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="2">
+        <f t="shared" si="0"/>
+        <v>26.036100000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4119,8 +4210,8 @@
       <c r="I19" t="s">
         <v>134</v>
       </c>
-      <c r="J19">
-        <v>1630688429252</v>
+      <c r="J19" s="1">
+        <v>44442.708668981482</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4131,8 +4222,12 @@
       <c r="M19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="2">
+        <f t="shared" si="0"/>
+        <v>-29.989599999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4160,8 +4255,8 @@
       <c r="I20" t="s">
         <v>134</v>
       </c>
-      <c r="J20">
-        <v>1630969745051</v>
+      <c r="J20" s="1">
+        <v>44445.964641203704</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -4172,8 +4267,12 @@
       <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="2">
+        <f t="shared" si="0"/>
+        <v>34.058900000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -4201,8 +4300,8 @@
       <c r="I21" t="s">
         <v>134</v>
       </c>
-      <c r="J21">
-        <v>1629818610105</v>
+      <c r="J21" s="1">
+        <v>44432.641319444447</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -4213,8 +4312,12 @@
       <c r="M21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="2">
+        <f t="shared" si="0"/>
+        <v>-47.765000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -4242,8 +4345,8 @@
       <c r="I22" t="s">
         <v>134</v>
       </c>
-      <c r="J22">
-        <v>1630675986803</v>
+      <c r="J22" s="1">
+        <v>44442.564652777779</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -4254,8 +4357,12 @@
       <c r="M22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.982599999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -4283,8 +4390,8 @@
       <c r="I23" t="s">
         <v>134</v>
       </c>
-      <c r="J23">
-        <v>1630675986822</v>
+      <c r="J23" s="1">
+        <v>44442.564652777779</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -4295,8 +4402,12 @@
       <c r="M23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.72E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -4324,8 +4435,8 @@
       <c r="I24" t="s">
         <v>134</v>
       </c>
-      <c r="J24">
-        <v>1630804204816</v>
+      <c r="J24" s="1">
+        <v>44444.048657407409</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -4336,8 +4447,12 @@
       <c r="M24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.999099999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4365,8 +4480,8 @@
       <c r="I25" t="s">
         <v>134</v>
       </c>
-      <c r="J25">
-        <v>1630853308362</v>
+      <c r="J25" s="1">
+        <v>44444.616990740738</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -4377,8 +4492,12 @@
       <c r="M25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.999600000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4406,8 +4525,8 @@
       <c r="I26" t="s">
         <v>134</v>
       </c>
-      <c r="J26">
-        <v>1630949339700</v>
+      <c r="J26" s="1">
+        <v>44445.728460648148</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -4418,8 +4537,12 @@
       <c r="M26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.998800000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -4447,8 +4570,8 @@
       <c r="I27" t="s">
         <v>134</v>
       </c>
-      <c r="J27">
-        <v>1630957266860</v>
+      <c r="J27" s="1">
+        <v>44445.820208333331</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -4459,8 +4582,12 @@
       <c r="M27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.999000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -4488,8 +4615,8 @@
       <c r="I28" t="s">
         <v>134</v>
       </c>
-      <c r="J28">
-        <v>1630957709382</v>
+      <c r="J28" s="1">
+        <v>44445.825335648151</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -4500,8 +4627,12 @@
       <c r="M28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="2">
+        <f t="shared" si="0"/>
+        <v>50.1404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -4529,8 +4660,8 @@
       <c r="I29" t="s">
         <v>134</v>
       </c>
-      <c r="J29">
-        <v>1630960313381</v>
+      <c r="J29" s="1">
+        <v>44445.855474537035</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -4541,8 +4672,12 @@
       <c r="M29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.998199999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -4570,8 +4705,8 @@
       <c r="I30" t="s">
         <v>134</v>
       </c>
-      <c r="J30">
-        <v>1630960362009</v>
+      <c r="J30" s="1">
+        <v>44445.856041666666</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -4582,8 +4717,12 @@
       <c r="M30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="2">
+        <f t="shared" si="0"/>
+        <v>50.1038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -4611,8 +4750,8 @@
       <c r="I31" t="s">
         <v>134</v>
       </c>
-      <c r="J31">
-        <v>1630960543206</v>
+      <c r="J31" s="1">
+        <v>44445.858136574076</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -4623,8 +4762,12 @@
       <c r="M31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.997300000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -4652,8 +4795,8 @@
       <c r="I32" t="s">
         <v>134</v>
       </c>
-      <c r="J32">
-        <v>1630960573753</v>
+      <c r="J32" s="1">
+        <v>44445.858483796299</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -4664,8 +4807,12 @@
       <c r="M32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="2">
+        <f t="shared" si="0"/>
+        <v>50.136899999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -4693,8 +4840,8 @@
       <c r="I33" t="s">
         <v>134</v>
       </c>
-      <c r="J33">
-        <v>1630961730051</v>
+      <c r="J33" s="1">
+        <v>44445.871874999997</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -4705,8 +4852,12 @@
       <c r="M33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="2">
+        <f t="shared" si="0"/>
+        <v>-50.0032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -4734,8 +4885,8 @@
       <c r="I34" t="s">
         <v>134</v>
       </c>
-      <c r="J34">
-        <v>1630961761741</v>
+      <c r="J34" s="1">
+        <v>44445.872233796297</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -4746,8 +4897,12 @@
       <c r="M34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="2">
+        <f t="shared" si="0"/>
+        <v>49.9681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4775,8 +4930,8 @@
       <c r="I35" t="s">
         <v>134</v>
       </c>
-      <c r="J35">
-        <v>1630962221265</v>
+      <c r="J35" s="1">
+        <v>44445.877557870372</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -4787,8 +4942,12 @@
       <c r="M35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="2">
+        <f t="shared" si="0"/>
+        <v>-21.5411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4816,8 +4975,8 @@
       <c r="I36" t="s">
         <v>134</v>
       </c>
-      <c r="J36">
-        <v>1630962221265</v>
+      <c r="J36" s="1">
+        <v>44445.877557870372</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -4828,8 +4987,12 @@
       <c r="M36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="2">
+        <f t="shared" si="0"/>
+        <v>-28.4544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -4857,8 +5020,8 @@
       <c r="I37" t="s">
         <v>134</v>
       </c>
-      <c r="J37">
-        <v>1630962299818</v>
+      <c r="J37" s="1">
+        <v>44445.878460648149</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -4869,40 +5032,44 @@
       <c r="M37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="2">
+        <f t="shared" si="0"/>
+        <v>50.065600000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38">
-        <v>1341048</v>
+        <v>2543353</v>
       </c>
       <c r="C38">
-        <v>39610650</v>
+        <v>72112045</v>
       </c>
       <c r="D38">
         <v>-1</v>
       </c>
       <c r="E38">
-        <v>1.9750000000000001</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="F38">
-        <v>25.31</v>
+        <v>73.771000000000001</v>
       </c>
       <c r="G38">
-        <v>49.987200000000001</v>
+        <v>105.8613</v>
       </c>
       <c r="H38">
-        <v>7.5140000000000002E-5</v>
+        <v>1.6029E-4</v>
       </c>
       <c r="I38" t="s">
         <v>134</v>
       </c>
-      <c r="J38">
-        <v>1630789635326</v>
+      <c r="J38" s="1">
+        <v>44446.039085648146</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -4910,40 +5077,44 @@
       <c r="M38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2">
+        <f t="shared" si="0"/>
+        <v>105.8613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39">
-        <v>1365270</v>
+        <v>1341048</v>
       </c>
       <c r="C39">
-        <v>39673977</v>
+        <v>39610650</v>
       </c>
       <c r="D39">
         <v>-1</v>
       </c>
       <c r="E39">
-        <v>2.1724999999999999</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="F39">
         <v>25.31</v>
       </c>
       <c r="G39">
-        <v>54.985900000000001</v>
+        <v>49.987200000000001</v>
       </c>
       <c r="H39">
-        <v>8.3010000000000007E-5</v>
+        <v>7.5140000000000002E-5</v>
       </c>
       <c r="I39" t="s">
         <v>134</v>
       </c>
-      <c r="J39">
-        <v>1630804800675</v>
+      <c r="J39" s="1">
+        <v>44443.88003472222</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -4951,40 +5122,44 @@
       <c r="M39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.987200000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40">
-        <v>1420571</v>
+        <v>1365270</v>
       </c>
       <c r="C40">
-        <v>39853841</v>
+        <v>39673977</v>
       </c>
       <c r="D40">
         <v>-1</v>
       </c>
       <c r="E40">
-        <v>2.2641</v>
+        <v>2.1724999999999999</v>
       </c>
       <c r="F40">
-        <v>22.08</v>
+        <v>25.31</v>
       </c>
       <c r="G40">
-        <v>49.991300000000003</v>
+        <v>54.985900000000001</v>
       </c>
       <c r="H40">
-        <v>7.5389999999999995E-5</v>
+        <v>8.3010000000000007E-5</v>
       </c>
       <c r="I40" t="s">
         <v>134</v>
       </c>
-      <c r="J40">
-        <v>1630963698766</v>
+      <c r="J40" s="1">
+        <v>44444.055555555555</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -4992,163 +5167,179 @@
       <c r="M40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="2">
+        <f t="shared" si="0"/>
+        <v>54.985900000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>1420571</v>
+      </c>
+      <c r="C41">
+        <v>39853841</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41">
+        <v>2.2641</v>
+      </c>
+      <c r="F41">
+        <v>22.08</v>
+      </c>
+      <c r="G41">
+        <v>49.991300000000003</v>
+      </c>
+      <c r="H41">
+        <v>7.5389999999999995E-5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41" s="1">
+        <v>44445.894652777781</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.991300000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>1429864</v>
+      </c>
+      <c r="C42">
+        <v>39879227</v>
+      </c>
+      <c r="D42">
+        <v>-1</v>
+      </c>
+      <c r="E42">
+        <v>2.0844999999999998</v>
+      </c>
+      <c r="F42">
+        <v>22.08</v>
+      </c>
+      <c r="G42">
+        <v>46.025700000000001</v>
+      </c>
+      <c r="H42">
+        <v>6.9220000000000005E-5</v>
+      </c>
+      <c r="I42" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42" s="1">
+        <v>44446.061168981483</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="0"/>
+        <v>46.025700000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>73</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>16512303</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>144133481</v>
       </c>
-      <c r="D41">
-        <v>-1</v>
-      </c>
-      <c r="E41">
+      <c r="D43">
+        <v>-1</v>
+      </c>
+      <c r="E43">
         <v>0.31879999999999997</v>
       </c>
-      <c r="F41">
+      <c r="F43">
         <v>156</v>
       </c>
-      <c r="G41">
+      <c r="G43">
         <v>49.732799999999997</v>
       </c>
-      <c r="H41">
+      <c r="H43">
         <v>0.156</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I43" t="s">
         <v>143</v>
       </c>
-      <c r="J41">
-        <v>1629758154519</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="J43" s="1">
+        <v>44431.94159722222</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.732799999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>73</v>
       </c>
-      <c r="B42">
+      <c r="B44">
         <v>16533497</v>
       </c>
-      <c r="C42">
+      <c r="C44">
         <v>144136174</v>
       </c>
-      <c r="D42">
-        <v>-1</v>
-      </c>
-      <c r="E42">
+      <c r="D44">
+        <v>-1</v>
+      </c>
+      <c r="E44">
         <v>0.3029</v>
       </c>
-      <c r="F42">
+      <c r="F44">
         <v>155</v>
       </c>
-      <c r="G42">
+      <c r="G44">
         <v>46.9495</v>
       </c>
-      <c r="H42">
+      <c r="H44">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I44" t="s">
         <v>124</v>
       </c>
-      <c r="J42">
-        <v>1629811723471</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>1953265</v>
-      </c>
-      <c r="C43">
-        <v>94625397</v>
-      </c>
-      <c r="D43">
-        <v>-1</v>
-      </c>
-      <c r="E43">
-        <v>22.359000000000002</v>
-      </c>
-      <c r="F43">
-        <v>2.2360000000000002</v>
-      </c>
-      <c r="G43">
-        <v>49.994700000000002</v>
-      </c>
-      <c r="H43">
-        <v>2.2360000000000001E-3</v>
-      </c>
-      <c r="I43" t="s">
-        <v>145</v>
-      </c>
-      <c r="J43">
-        <v>1629690641881</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>1959052</v>
-      </c>
-      <c r="C44">
-        <v>94882381</v>
-      </c>
-      <c r="D44">
-        <v>-1</v>
-      </c>
-      <c r="E44">
-        <v>21.57</v>
-      </c>
-      <c r="F44">
-        <v>2.3180000000000001</v>
-      </c>
-      <c r="G44">
-        <v>49.999200000000002</v>
-      </c>
-      <c r="H44">
-        <v>2.3180000000000002E-3</v>
-      </c>
-      <c r="I44" t="s">
-        <v>145</v>
-      </c>
-      <c r="J44">
-        <v>1629739066097</v>
+      <c r="J44" s="1">
+        <v>44432.561608796299</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -5156,242 +5347,266 @@
       <c r="M44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="2">
+        <f t="shared" si="0"/>
+        <v>46.9495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>41</v>
       </c>
       <c r="B45">
+        <v>1953265</v>
+      </c>
+      <c r="C45">
+        <v>94625397</v>
+      </c>
+      <c r="D45">
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <v>22.359000000000002</v>
+      </c>
+      <c r="F45">
+        <v>2.2360000000000002</v>
+      </c>
+      <c r="G45">
+        <v>49.994700000000002</v>
+      </c>
+      <c r="H45">
+        <v>2.2360000000000001E-3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>145</v>
+      </c>
+      <c r="J45" s="1">
+        <v>44431.160196759258</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.994700000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>1959052</v>
+      </c>
+      <c r="C46">
+        <v>94882381</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>21.57</v>
+      </c>
+      <c r="F46">
+        <v>2.3180000000000001</v>
+      </c>
+      <c r="G46">
+        <v>49.999200000000002</v>
+      </c>
+      <c r="H46">
+        <v>2.3180000000000002E-3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>145</v>
+      </c>
+      <c r="J46" s="1">
+        <v>44431.720671296294</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.999200000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47">
         <v>1966464</v>
       </c>
-      <c r="C45">
+      <c r="C47">
         <v>94888956</v>
       </c>
-      <c r="D45">
-        <v>-1</v>
-      </c>
-      <c r="E45">
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
         <v>20.859000000000002</v>
       </c>
-      <c r="F45">
+      <c r="F47">
         <v>4.5490000000000004</v>
       </c>
-      <c r="G45">
+      <c r="G47">
         <v>94.887500000000003</v>
       </c>
-      <c r="H45">
+      <c r="H47">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I47" t="s">
         <v>124</v>
       </c>
-      <c r="J45">
-        <v>1629808488019</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="J47" s="1">
+        <v>44432.52416666667</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="0"/>
+        <v>94.887500000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>43</v>
       </c>
-      <c r="B46">
+      <c r="B48">
         <v>1017751</v>
       </c>
-      <c r="C46">
+      <c r="C48">
         <v>94666291</v>
       </c>
-      <c r="D46">
-        <v>-1</v>
-      </c>
-      <c r="E46">
+      <c r="D48">
+        <v>-1</v>
+      </c>
+      <c r="E48">
         <v>62.921999999999997</v>
       </c>
-      <c r="F46">
+      <c r="F48">
         <v>0.79400000000000004</v>
       </c>
-      <c r="G46">
+      <c r="G48">
         <v>49.96</v>
       </c>
-      <c r="H46">
+      <c r="H48">
         <v>7.5630000000000006E-5</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I48" t="s">
         <v>134</v>
       </c>
-      <c r="J46">
-        <v>1630857687381</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="J48" s="1">
+        <v>44444.667673611111</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B47">
+      <c r="B49">
         <v>8682323</v>
       </c>
-      <c r="C47">
+      <c r="C49">
         <v>119787894</v>
       </c>
-      <c r="D47">
-        <v>-1</v>
-      </c>
-      <c r="E47">
+      <c r="D49">
+        <v>-1</v>
+      </c>
+      <c r="E49">
         <v>0.1525</v>
       </c>
-      <c r="F47">
+      <c r="F49">
         <v>327</v>
       </c>
-      <c r="G47">
+      <c r="G49">
         <v>49.8675</v>
       </c>
-      <c r="H47">
+      <c r="H49">
         <v>7.4300000000000004E-5</v>
-      </c>
-      <c r="I47" t="s">
-        <v>134</v>
-      </c>
-      <c r="J47">
-        <v>1630879256086</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>1000253</v>
-      </c>
-      <c r="C48">
-        <v>83512643</v>
-      </c>
-      <c r="D48">
-        <v>-1</v>
-      </c>
-      <c r="E48">
-        <v>13.69</v>
-      </c>
-      <c r="F48">
-        <v>4.4660000000000002</v>
-      </c>
-      <c r="G48">
-        <v>61.139499999999998</v>
-      </c>
-      <c r="H48">
-        <v>4.4660000000000004E-3</v>
-      </c>
-      <c r="I48" t="s">
-        <v>148</v>
-      </c>
-      <c r="J48">
-        <v>1629692670276</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>2676188</v>
-      </c>
-      <c r="C49">
-        <v>117961597</v>
-      </c>
-      <c r="D49">
-        <v>-1</v>
-      </c>
-      <c r="E49">
-        <v>2.0750000000000002</v>
-      </c>
-      <c r="F49">
-        <v>12</v>
-      </c>
-      <c r="G49">
-        <v>24.9</v>
-      </c>
-      <c r="H49">
-        <v>3.7969999999999997E-5</v>
       </c>
       <c r="I49" t="s">
         <v>134</v>
       </c>
-      <c r="J49">
-        <v>1630560343853</v>
+      <c r="J49" s="1">
+        <v>44444.917314814818</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.8675</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B50">
-        <v>2832674</v>
+        <v>1000253</v>
       </c>
       <c r="C50">
-        <v>58255097</v>
+        <v>83512643</v>
       </c>
       <c r="D50">
         <v>-1</v>
       </c>
       <c r="E50">
-        <v>0.24709999999999999</v>
+        <v>13.69</v>
       </c>
       <c r="F50">
-        <v>80.900000000000006</v>
+        <v>4.4660000000000002</v>
       </c>
       <c r="G50">
-        <v>19.990300000000001</v>
+        <v>61.139499999999998</v>
       </c>
       <c r="H50">
-        <v>3.2610000000000001E-5</v>
+        <v>4.4660000000000004E-3</v>
       </c>
       <c r="I50" t="s">
-        <v>134</v>
-      </c>
-      <c r="J50">
-        <v>1630461942263</v>
+        <v>148</v>
+      </c>
+      <c r="J50" s="1">
+        <v>44431.183680555558</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5402,40 +5617,44 @@
       <c r="M50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="2">
+        <f t="shared" si="0"/>
+        <v>-61.139499999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>2846657</v>
+        <v>2676188</v>
       </c>
       <c r="C51">
-        <v>58534879</v>
+        <v>117961597</v>
       </c>
       <c r="D51">
         <v>-1</v>
       </c>
       <c r="E51">
-        <v>0.26440000000000002</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="F51">
-        <v>71.8</v>
+        <v>12</v>
       </c>
       <c r="G51">
-        <v>18.983899999999998</v>
+        <v>24.9</v>
       </c>
       <c r="H51">
-        <v>2.8920000000000001E-5</v>
+        <v>3.7969999999999997E-5</v>
       </c>
       <c r="I51" t="s">
         <v>134</v>
       </c>
-      <c r="J51">
-        <v>1630559985367</v>
+      <c r="J51" s="1">
+        <v>44441.22619212963</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -5443,40 +5662,44 @@
       <c r="M51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="2">
+        <f t="shared" si="0"/>
+        <v>-24.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
       <c r="B52">
-        <v>2846658</v>
+        <v>2832674</v>
       </c>
       <c r="C52">
-        <v>58534879</v>
+        <v>58255097</v>
       </c>
       <c r="D52">
         <v>-1</v>
       </c>
       <c r="E52">
-        <v>0.26440000000000002</v>
+        <v>0.24709999999999999</v>
       </c>
       <c r="F52">
-        <v>9.1</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="G52">
-        <v>2.4060000000000001</v>
+        <v>19.990300000000001</v>
       </c>
       <c r="H52">
-        <v>3.6500000000000002E-6</v>
+        <v>3.2610000000000001E-5</v>
       </c>
       <c r="I52" t="s">
         <v>134</v>
       </c>
-      <c r="J52">
-        <v>1630559986367</v>
+      <c r="J52" s="1">
+        <v>44440.087291666663</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -5484,40 +5707,44 @@
       <c r="M52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="2">
+        <f t="shared" si="0"/>
+        <v>-19.990300000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>61</v>
       </c>
       <c r="B53">
-        <v>2872243</v>
+        <v>2846657</v>
       </c>
       <c r="C53">
-        <v>58916206</v>
+        <v>58534879</v>
       </c>
       <c r="D53">
         <v>-1</v>
       </c>
       <c r="E53">
-        <v>0.28399999999999997</v>
+        <v>0.26440000000000002</v>
       </c>
       <c r="F53">
-        <v>176</v>
+        <v>71.8</v>
       </c>
       <c r="G53">
-        <v>49.984000000000002</v>
+        <v>18.983899999999998</v>
       </c>
       <c r="H53">
-        <v>7.6100000000000007E-5</v>
+        <v>2.8920000000000001E-5</v>
       </c>
       <c r="I53" t="s">
         <v>134</v>
       </c>
-      <c r="J53">
-        <v>1630689450384</v>
+      <c r="J53" s="1">
+        <v>44441.222048611111</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -5525,37 +5752,41 @@
       <c r="M53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="2">
+        <f t="shared" si="0"/>
+        <v>18.983899999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>61</v>
       </c>
       <c r="B54">
-        <v>2927014</v>
+        <v>2846658</v>
       </c>
       <c r="C54">
-        <v>59565256</v>
+        <v>58534879</v>
       </c>
       <c r="D54">
         <v>-1</v>
       </c>
       <c r="E54">
-        <v>0.313</v>
+        <v>0.26440000000000002</v>
       </c>
       <c r="F54">
-        <v>176</v>
+        <v>9.1</v>
       </c>
       <c r="G54">
-        <v>55.088000000000001</v>
+        <v>2.4060000000000001</v>
       </c>
       <c r="H54">
-        <v>8.2100000000000003E-5</v>
+        <v>3.6500000000000002E-6</v>
       </c>
       <c r="I54" t="s">
         <v>134</v>
       </c>
-      <c r="J54">
-        <v>1630877983619</v>
+      <c r="J54" s="1">
+        <v>44441.222060185188</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5566,37 +5797,41 @@
       <c r="M54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4060000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>7974181</v>
+        <v>2872243</v>
       </c>
       <c r="C55">
-        <v>145396490</v>
+        <v>58916206</v>
       </c>
       <c r="D55">
         <v>-1</v>
       </c>
       <c r="E55">
-        <v>1.6426000000000001</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="F55">
-        <v>30.4</v>
+        <v>176</v>
       </c>
       <c r="G55">
-        <v>49.935000000000002</v>
+        <v>49.984000000000002</v>
       </c>
       <c r="H55">
-        <v>3.04E-2</v>
+        <v>7.6100000000000007E-5</v>
       </c>
       <c r="I55" t="s">
-        <v>159</v>
-      </c>
-      <c r="J55">
-        <v>1629682339209</v>
+        <v>134</v>
+      </c>
+      <c r="J55" s="1">
+        <v>44442.720486111109</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5607,40 +5842,44 @@
       <c r="M55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.984000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>8007809</v>
+        <v>2927014</v>
       </c>
       <c r="C56">
-        <v>146488084</v>
+        <v>59565256</v>
       </c>
       <c r="D56">
         <v>-1</v>
       </c>
       <c r="E56">
-        <v>1.6012999999999999</v>
+        <v>0.313</v>
       </c>
       <c r="F56">
-        <v>31.2</v>
+        <v>176</v>
       </c>
       <c r="G56">
-        <v>49.960500000000003</v>
+        <v>55.088000000000001</v>
       </c>
       <c r="H56">
-        <v>3.1199999999999999E-2</v>
+        <v>8.2100000000000003E-5</v>
       </c>
       <c r="I56" t="s">
-        <v>159</v>
-      </c>
-      <c r="J56">
-        <v>1629765813631</v>
+        <v>134</v>
+      </c>
+      <c r="J56" s="1">
+        <v>44444.902581018519</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -5648,201 +5887,221 @@
       <c r="M56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="2">
+        <f t="shared" si="0"/>
+        <v>55.088000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>65</v>
       </c>
       <c r="B57">
-        <v>8018879</v>
+        <v>7974181</v>
       </c>
       <c r="C57">
-        <v>145410183</v>
+        <v>145396490</v>
       </c>
       <c r="D57">
         <v>-1</v>
       </c>
       <c r="E57">
-        <v>1.56</v>
+        <v>1.6426000000000001</v>
       </c>
       <c r="F57">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="G57">
-        <v>47.268000000000001</v>
+        <v>49.935000000000002</v>
       </c>
       <c r="H57">
-        <v>4.7300000000000002E-2</v>
+        <v>3.04E-2</v>
       </c>
       <c r="I57" t="s">
-        <v>124</v>
-      </c>
-      <c r="J57">
-        <v>1629811812293</v>
+        <v>159</v>
+      </c>
+      <c r="J57" s="1">
+        <v>44431.064108796294</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.935000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
       <c r="B58">
-        <v>8254600</v>
+        <v>8007809</v>
       </c>
       <c r="C58">
-        <v>155716106</v>
+        <v>146488084</v>
       </c>
       <c r="D58">
         <v>-1</v>
       </c>
       <c r="E58">
-        <v>1.3259000000000001</v>
+        <v>1.6012999999999999</v>
       </c>
       <c r="F58">
         <v>31.2</v>
       </c>
       <c r="G58">
+        <v>49.960500000000003</v>
+      </c>
+      <c r="H58">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>159</v>
+      </c>
+      <c r="J58" s="1">
+        <v>44432.030243055553</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.960500000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <v>8018879</v>
+      </c>
+      <c r="C59">
+        <v>145410183</v>
+      </c>
+      <c r="D59">
+        <v>-1</v>
+      </c>
+      <c r="E59">
+        <v>1.56</v>
+      </c>
+      <c r="F59">
+        <v>30.3</v>
+      </c>
+      <c r="G59">
+        <v>47.268000000000001</v>
+      </c>
+      <c r="H59">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>124</v>
+      </c>
+      <c r="J59" s="1">
+        <v>44432.562638888892</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="0"/>
+        <v>47.268000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>8254600</v>
+      </c>
+      <c r="C60">
+        <v>155716106</v>
+      </c>
+      <c r="D60">
+        <v>-1</v>
+      </c>
+      <c r="E60">
+        <v>1.3259000000000001</v>
+      </c>
+      <c r="F60">
+        <v>31.2</v>
+      </c>
+      <c r="G60">
         <v>41.368000000000002</v>
       </c>
-      <c r="H58">
+      <c r="H60">
         <v>6.7500000000000001E-5</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I60" t="s">
         <v>134</v>
       </c>
-      <c r="J58">
-        <v>1630462905464</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59">
-        <v>5428982</v>
-      </c>
-      <c r="C59">
-        <v>44641520</v>
-      </c>
-      <c r="D59">
-        <v>-1</v>
-      </c>
-      <c r="E59">
-        <v>0.1178</v>
-      </c>
-      <c r="F59">
-        <v>424.4</v>
-      </c>
-      <c r="G59">
-        <v>49.994300000000003</v>
-      </c>
-      <c r="H59">
-        <v>0.4244</v>
-      </c>
-      <c r="I59" t="s">
-        <v>160</v>
-      </c>
-      <c r="J59">
-        <v>1629684689581</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60">
-        <v>5456238</v>
-      </c>
-      <c r="C60">
-        <v>44643416</v>
-      </c>
-      <c r="D60">
-        <v>-1</v>
-      </c>
-      <c r="E60">
-        <v>0.1119</v>
-      </c>
-      <c r="F60">
-        <v>423.9</v>
-      </c>
-      <c r="G60">
-        <v>47.434399999999997</v>
-      </c>
-      <c r="H60">
-        <v>4.7399999999999998E-2</v>
-      </c>
-      <c r="I60" t="s">
-        <v>124</v>
-      </c>
-      <c r="J60">
-        <v>1629812395221</v>
+      <c r="J60" s="1">
+        <v>44440.098437499997</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="2">
+        <f t="shared" si="0"/>
+        <v>41.368000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>88</v>
       </c>
       <c r="B61">
-        <v>5635269</v>
+        <v>5428982</v>
       </c>
       <c r="C61">
-        <v>46856168</v>
+        <v>44641520</v>
       </c>
       <c r="D61">
         <v>-1</v>
       </c>
       <c r="E61">
-        <v>0.12139999999999999</v>
+        <v>0.1178</v>
       </c>
       <c r="F61">
-        <v>164.7</v>
+        <v>424.4</v>
       </c>
       <c r="G61">
-        <v>19.994499999999999</v>
+        <v>49.994300000000003</v>
       </c>
       <c r="H61">
-        <v>3.222E-5</v>
+        <v>0.4244</v>
       </c>
       <c r="I61" t="s">
-        <v>134</v>
-      </c>
-      <c r="J61">
-        <v>1630473048071</v>
+        <v>160</v>
+      </c>
+      <c r="J61" s="1">
+        <v>44431.091307870367</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -5853,81 +6112,89 @@
       <c r="M61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="2">
+        <f t="shared" si="0"/>
+        <v>-49.994300000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>88</v>
       </c>
       <c r="B62">
-        <v>5707419</v>
+        <v>5456238</v>
       </c>
       <c r="C62">
-        <v>46857009</v>
+        <v>44643416</v>
       </c>
       <c r="D62">
         <v>-1</v>
       </c>
       <c r="E62">
-        <v>0.13350000000000001</v>
+        <v>0.1119</v>
       </c>
       <c r="F62">
-        <v>128.5</v>
+        <v>423.9</v>
       </c>
       <c r="G62">
-        <v>17.154699999999998</v>
+        <v>47.434399999999997</v>
       </c>
       <c r="H62">
-        <v>2.5999999999999998E-5</v>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="I62" t="s">
-        <v>134</v>
-      </c>
-      <c r="J62">
-        <v>1630858397401</v>
+        <v>124</v>
+      </c>
+      <c r="J62" s="1">
+        <v>44432.569386574076</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="2">
+        <f t="shared" si="0"/>
+        <v>47.434399999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>88</v>
       </c>
       <c r="B63">
-        <v>5707420</v>
+        <v>5635269</v>
       </c>
       <c r="C63">
-        <v>46857009</v>
+        <v>46856168</v>
       </c>
       <c r="D63">
         <v>-1</v>
       </c>
       <c r="E63">
-        <v>0.13350000000000001</v>
+        <v>0.12139999999999999</v>
       </c>
       <c r="F63">
-        <v>36.200000000000003</v>
+        <v>164.7</v>
       </c>
       <c r="G63">
-        <v>4.8327</v>
+        <v>19.994499999999999</v>
       </c>
       <c r="H63">
-        <v>7.25E-6</v>
+        <v>3.222E-5</v>
       </c>
       <c r="I63" t="s">
         <v>134</v>
       </c>
-      <c r="J63">
-        <v>1630858397403</v>
+      <c r="J63" s="1">
+        <v>44440.215833333335</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -5935,245 +6202,269 @@
       <c r="M63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="2">
+        <f t="shared" si="0"/>
+        <v>-19.994499999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B64">
-        <v>4136067</v>
+        <v>5707419</v>
       </c>
       <c r="C64">
-        <v>20820012</v>
+        <v>46857009</v>
       </c>
       <c r="D64">
         <v>-1</v>
       </c>
       <c r="E64">
-        <v>1.2800000000000001E-2</v>
+        <v>0.13350000000000001</v>
       </c>
       <c r="F64">
-        <v>1953</v>
+        <v>128.5</v>
       </c>
       <c r="G64">
-        <v>24.9984</v>
+        <v>17.154699999999998</v>
       </c>
       <c r="H64">
-        <v>3.8090000000000003E-5</v>
+        <v>2.5999999999999998E-5</v>
       </c>
       <c r="I64" t="s">
         <v>134</v>
       </c>
-      <c r="J64">
-        <v>1630559730789</v>
+      <c r="J64" s="1">
+        <v>44444.675891203704</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="2">
+        <f t="shared" si="0"/>
+        <v>17.154699999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B65">
-        <v>4143501</v>
+        <v>5707420</v>
       </c>
       <c r="C65">
-        <v>20855705</v>
+        <v>46857009</v>
       </c>
       <c r="D65">
         <v>-1</v>
       </c>
       <c r="E65">
-        <v>1.2500000000000001E-2</v>
+        <v>0.13350000000000001</v>
       </c>
       <c r="F65">
-        <v>2000</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="G65">
-        <v>25</v>
+        <v>4.8327</v>
       </c>
       <c r="H65">
-        <v>3.871E-5</v>
+        <v>7.25E-6</v>
       </c>
       <c r="I65" t="s">
         <v>134</v>
       </c>
-      <c r="J65">
-        <v>1630604871374</v>
+      <c r="J65" s="1">
+        <v>44444.675891203704</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
       <c r="B66">
-        <v>4154523</v>
+        <v>4136067</v>
       </c>
       <c r="C66">
-        <v>20916582</v>
+        <v>20820012</v>
       </c>
       <c r="D66">
         <v>-1</v>
       </c>
       <c r="E66">
-        <v>1.23E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="F66">
-        <v>3953</v>
+        <v>1953</v>
       </c>
       <c r="G66">
-        <v>48.621899999999997</v>
+        <v>24.9984</v>
       </c>
       <c r="H66">
-        <v>7.4339999999999996E-5</v>
+        <v>3.8090000000000003E-5</v>
       </c>
       <c r="I66" t="s">
         <v>134</v>
       </c>
-      <c r="J66">
-        <v>1630736142003</v>
+      <c r="J66" s="1">
+        <v>44441.219097222223</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="2">
+        <f t="shared" si="0"/>
+        <v>-24.9984</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>2353919</v>
+        <v>4143501</v>
       </c>
       <c r="C67">
-        <v>66973316</v>
+        <v>20855705</v>
       </c>
       <c r="D67">
         <v>-1</v>
       </c>
       <c r="E67">
-        <v>0.97829999999999995</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F67">
-        <v>25.55</v>
+        <v>2000</v>
       </c>
       <c r="G67">
-        <v>24.9955</v>
+        <v>25</v>
       </c>
       <c r="H67">
-        <v>3.8500000000000001E-5</v>
+        <v>3.871E-5</v>
       </c>
       <c r="I67" t="s">
         <v>134</v>
       </c>
-      <c r="J67">
-        <v>1630535391006</v>
+      <c r="J67" s="1">
+        <v>44441.741562499999</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="2">
+        <f t="shared" ref="N67:N87" si="1">IF(K67=1,G67*-1,G67)</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>2369766</v>
+        <v>4154523</v>
       </c>
       <c r="C68">
-        <v>67715875</v>
+        <v>20916582</v>
       </c>
       <c r="D68">
         <v>-1</v>
       </c>
       <c r="E68">
-        <v>0.98860000000000003</v>
+        <v>1.23E-2</v>
       </c>
       <c r="F68">
-        <v>30.33</v>
+        <v>3953</v>
       </c>
       <c r="G68">
-        <v>29.984200000000001</v>
+        <v>48.621899999999997</v>
       </c>
       <c r="H68">
-        <v>4.6360000000000003E-5</v>
+        <v>7.4339999999999996E-5</v>
       </c>
       <c r="I68" t="s">
         <v>134</v>
       </c>
-      <c r="J68">
-        <v>1630667073911</v>
+      <c r="J68" s="1">
+        <v>44443.26090277778</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="2">
+        <f t="shared" si="1"/>
+        <v>48.621899999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B69">
-        <v>1636929</v>
+        <v>2353919</v>
       </c>
       <c r="C69">
-        <v>52136338</v>
+        <v>66973316</v>
       </c>
       <c r="D69">
         <v>-1</v>
       </c>
       <c r="E69">
-        <v>24.93</v>
+        <v>0.97829999999999995</v>
       </c>
       <c r="F69">
-        <v>4.3899999999999997</v>
+        <v>25.55</v>
       </c>
       <c r="G69">
-        <v>109.4427</v>
+        <v>24.9955</v>
       </c>
       <c r="H69">
-        <v>0.1094</v>
+        <v>3.8500000000000001E-5</v>
       </c>
       <c r="I69" t="s">
-        <v>124</v>
-      </c>
-      <c r="J69">
-        <v>1629482482899</v>
+        <v>134</v>
+      </c>
+      <c r="J69" s="1">
+        <v>44440.937395833331</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -6181,81 +6472,89 @@
       <c r="M69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="2">
+        <f t="shared" si="1"/>
+        <v>-24.9955</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70">
-        <v>1795293</v>
+        <v>2369766</v>
       </c>
       <c r="C70">
-        <v>57913457</v>
+        <v>67715875</v>
       </c>
       <c r="D70">
         <v>-1</v>
       </c>
       <c r="E70">
-        <v>22.9617</v>
+        <v>0.98860000000000003</v>
       </c>
       <c r="F70">
-        <v>1.08</v>
+        <v>30.33</v>
       </c>
       <c r="G70">
-        <v>24.7986</v>
+        <v>29.984200000000001</v>
       </c>
       <c r="H70">
-        <v>3.841E-5</v>
+        <v>4.6360000000000003E-5</v>
       </c>
       <c r="I70" t="s">
         <v>134</v>
       </c>
-      <c r="J70">
-        <v>1630603623866</v>
+      <c r="J70" s="1">
+        <v>44442.461493055554</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="2">
+        <f t="shared" si="1"/>
+        <v>-29.984200000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B71">
-        <v>810386</v>
+        <v>1636929</v>
       </c>
       <c r="C71">
-        <v>48706937</v>
+        <v>52136338</v>
       </c>
       <c r="D71">
         <v>-1</v>
       </c>
       <c r="E71">
-        <v>9.5803999999999991</v>
+        <v>24.93</v>
       </c>
       <c r="F71">
-        <v>2.6</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="G71">
-        <v>24.908999999999999</v>
+        <v>109.4427</v>
       </c>
       <c r="H71">
-        <v>3.9150000000000003E-5</v>
+        <v>0.1094</v>
       </c>
       <c r="I71" t="s">
-        <v>134</v>
-      </c>
-      <c r="J71">
-        <v>1630506955417</v>
+        <v>124</v>
+      </c>
+      <c r="J71" s="1">
+        <v>44428.750949074078</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -6263,40 +6562,44 @@
       <c r="M71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="2">
+        <f t="shared" si="1"/>
+        <v>109.4427</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>820795</v>
+        <v>1795293</v>
       </c>
       <c r="C72">
-        <v>48707372</v>
+        <v>57913457</v>
       </c>
       <c r="D72">
         <v>-1</v>
       </c>
       <c r="E72">
-        <v>10.538399999999999</v>
+        <v>22.9617</v>
       </c>
       <c r="F72">
-        <v>2.2999999999999998</v>
+        <v>1.08</v>
       </c>
       <c r="G72">
-        <v>24.238299999999999</v>
+        <v>24.7986</v>
       </c>
       <c r="H72">
-        <v>3.6829999999999998E-5</v>
+        <v>3.841E-5</v>
       </c>
       <c r="I72" t="s">
         <v>134</v>
       </c>
-      <c r="J72">
-        <v>1630687278350</v>
+      <c r="J72" s="1">
+        <v>44441.727118055554</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -6304,40 +6607,44 @@
       <c r="M72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="2">
+        <f t="shared" si="1"/>
+        <v>-24.7986</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>90</v>
       </c>
       <c r="B73">
-        <v>820806</v>
+        <v>810386</v>
       </c>
       <c r="C73">
-        <v>48707372</v>
+        <v>48706937</v>
       </c>
       <c r="D73">
         <v>-1</v>
       </c>
       <c r="E73">
-        <v>10.538399999999999</v>
+        <v>9.5803999999999991</v>
       </c>
       <c r="F73">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="G73">
-        <v>3.1615000000000002</v>
+        <v>24.908999999999999</v>
       </c>
       <c r="H73">
-        <v>4.8600000000000001E-6</v>
+        <v>3.9150000000000003E-5</v>
       </c>
       <c r="I73" t="s">
         <v>134</v>
       </c>
-      <c r="J73">
-        <v>1630687288535</v>
+      <c r="J73" s="1">
+        <v>44440.608275462961</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -6345,40 +6652,44 @@
       <c r="M73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="2">
+        <f t="shared" si="1"/>
+        <v>-24.908999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>90</v>
       </c>
       <c r="B74">
-        <v>821212</v>
+        <v>820795</v>
       </c>
       <c r="C74">
-        <v>48961411</v>
+        <v>48707372</v>
       </c>
       <c r="D74">
         <v>-1</v>
       </c>
       <c r="E74">
-        <v>10.4887</v>
+        <v>10.538399999999999</v>
       </c>
       <c r="F74">
-        <v>4.76</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G74">
-        <v>49.926200000000001</v>
+        <v>24.238299999999999</v>
       </c>
       <c r="H74">
-        <v>7.6110000000000001E-5</v>
+        <v>3.6829999999999998E-5</v>
       </c>
       <c r="I74" t="s">
         <v>134</v>
       </c>
-      <c r="J74">
-        <v>1630688768371</v>
+      <c r="J74" s="1">
+        <v>44442.695347222223</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -6386,40 +6697,44 @@
       <c r="M74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="2">
+        <f t="shared" si="1"/>
+        <v>24.238299999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B75">
-        <v>4204076</v>
+        <v>820806</v>
       </c>
       <c r="C75">
-        <v>122863065</v>
+        <v>48707372</v>
       </c>
       <c r="D75">
         <v>-1</v>
       </c>
       <c r="E75">
-        <v>94.058599999999998</v>
+        <v>10.538399999999999</v>
       </c>
       <c r="F75">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="G75">
-        <v>11.287000000000001</v>
+        <v>3.1615000000000002</v>
       </c>
       <c r="H75">
-        <v>1.7560000000000001E-5</v>
+        <v>4.8600000000000001E-6</v>
       </c>
       <c r="I75" t="s">
         <v>134</v>
       </c>
-      <c r="J75">
-        <v>1630279001148</v>
+      <c r="J75" s="1">
+        <v>44442.695462962962</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -6427,37 +6742,41 @@
       <c r="M75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1615000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B76">
-        <v>4204077</v>
+        <v>821212</v>
       </c>
       <c r="C76">
-        <v>122863065</v>
+        <v>48961411</v>
       </c>
       <c r="D76">
         <v>-1</v>
       </c>
       <c r="E76">
-        <v>94.058599999999998</v>
+        <v>10.4887</v>
       </c>
       <c r="F76">
-        <v>0.28999999999999998</v>
+        <v>4.76</v>
       </c>
       <c r="G76">
-        <v>27.276900000000001</v>
+        <v>49.926200000000001</v>
       </c>
       <c r="H76">
-        <v>4.2450000000000002E-5</v>
+        <v>7.6110000000000001E-5</v>
       </c>
       <c r="I76" t="s">
         <v>134</v>
       </c>
-      <c r="J76">
-        <v>1630279003642</v>
+      <c r="J76" s="1">
+        <v>44442.712592592594</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -6468,40 +6787,44 @@
       <c r="M76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="2">
+        <f t="shared" si="1"/>
+        <v>-49.926200000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>96</v>
       </c>
       <c r="B77">
-        <v>4267150</v>
+        <v>4204076</v>
       </c>
       <c r="C77">
-        <v>122996689</v>
+        <v>122863065</v>
       </c>
       <c r="D77">
         <v>-1</v>
       </c>
       <c r="E77">
-        <v>103.46</v>
+        <v>94.058599999999998</v>
       </c>
       <c r="F77">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G77">
-        <v>20.692</v>
+        <v>11.287000000000001</v>
       </c>
       <c r="H77">
-        <v>3.3080000000000002E-5</v>
+        <v>1.7560000000000001E-5</v>
       </c>
       <c r="I77" t="s">
         <v>134</v>
       </c>
-      <c r="J77">
-        <v>1630334519254</v>
+      <c r="J77" s="1">
+        <v>44437.969918981478</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -6509,40 +6832,44 @@
       <c r="M77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="2">
+        <f t="shared" si="1"/>
+        <v>-11.287000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>96</v>
       </c>
       <c r="B78">
-        <v>4297811</v>
+        <v>4204077</v>
       </c>
       <c r="C78">
-        <v>124151181</v>
+        <v>122863065</v>
       </c>
       <c r="D78">
         <v>-1</v>
       </c>
       <c r="E78">
-        <v>112.8703</v>
+        <v>94.058599999999998</v>
       </c>
       <c r="F78">
-        <v>0.21</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G78">
-        <v>23.7027</v>
+        <v>27.276900000000001</v>
       </c>
       <c r="H78">
-        <v>3.7209999999999998E-5</v>
+        <v>4.2450000000000002E-5</v>
       </c>
       <c r="I78" t="s">
         <v>134</v>
       </c>
-      <c r="J78">
-        <v>1630349461239</v>
+      <c r="J78" s="1">
+        <v>44437.969942129632</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -6550,40 +6877,44 @@
       <c r="M78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78" s="2">
+        <f t="shared" si="1"/>
+        <v>-27.276900000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>96</v>
       </c>
       <c r="B79">
-        <v>4558966</v>
+        <v>4267150</v>
       </c>
       <c r="C79">
-        <v>127267371</v>
+        <v>122996689</v>
       </c>
       <c r="D79">
         <v>-1</v>
       </c>
       <c r="E79">
-        <v>112.2411</v>
+        <v>103.46</v>
       </c>
       <c r="F79">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G79">
-        <v>19.0809</v>
+        <v>20.692</v>
       </c>
       <c r="H79">
-        <v>3.074E-5</v>
+        <v>3.3080000000000002E-5</v>
       </c>
       <c r="I79" t="s">
         <v>134</v>
       </c>
-      <c r="J79">
-        <v>1630472471903</v>
+      <c r="J79" s="1">
+        <v>44438.612488425926</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -6591,37 +6922,41 @@
       <c r="M79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" s="2">
+        <f t="shared" si="1"/>
+        <v>20.692</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>96</v>
       </c>
       <c r="B80">
-        <v>4585180</v>
+        <v>4297811</v>
       </c>
       <c r="C80">
-        <v>127275159</v>
+        <v>124151181</v>
       </c>
       <c r="D80">
         <v>-1</v>
       </c>
       <c r="E80">
-        <v>117.85</v>
+        <v>112.8703</v>
       </c>
       <c r="F80">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="G80">
-        <v>20.034500000000001</v>
+        <v>23.7027</v>
       </c>
       <c r="H80">
-        <v>3.1080000000000001E-5</v>
+        <v>3.7209999999999998E-5</v>
       </c>
       <c r="I80" t="s">
         <v>134</v>
       </c>
-      <c r="J80">
-        <v>1630498753790</v>
+      <c r="J80" s="1">
+        <v>44438.785428240742</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -6632,37 +6967,41 @@
       <c r="M80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2">
+        <f t="shared" si="1"/>
+        <v>23.7027</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>96</v>
       </c>
       <c r="B81">
-        <v>4641339</v>
+        <v>4558966</v>
       </c>
       <c r="C81">
-        <v>128869580</v>
+        <v>127267371</v>
       </c>
       <c r="D81">
         <v>-1</v>
       </c>
       <c r="E81">
-        <v>114.3926</v>
+        <v>112.2411</v>
       </c>
       <c r="F81">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="G81">
-        <v>24.022400000000001</v>
+        <v>19.0809</v>
       </c>
       <c r="H81">
-        <v>3.6739999999999997E-5</v>
+        <v>3.074E-5</v>
       </c>
       <c r="I81" t="s">
         <v>134</v>
       </c>
-      <c r="J81">
-        <v>1630561199809</v>
+      <c r="J81" s="1">
+        <v>44440.209155092591</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -6673,37 +7012,41 @@
       <c r="M81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="2">
+        <f t="shared" si="1"/>
+        <v>-19.0809</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
       <c r="B82">
-        <v>4722277</v>
+        <v>4585180</v>
       </c>
       <c r="C82">
-        <v>129811338</v>
+        <v>127275159</v>
       </c>
       <c r="D82">
         <v>-1</v>
       </c>
       <c r="E82">
-        <v>128.82</v>
+        <v>117.85</v>
       </c>
       <c r="F82">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="G82">
-        <v>27.052199999999999</v>
+        <v>20.034500000000001</v>
       </c>
       <c r="H82">
-        <v>4.1669999999999999E-5</v>
+        <v>3.1080000000000001E-5</v>
       </c>
       <c r="I82" t="s">
         <v>134</v>
       </c>
-      <c r="J82">
-        <v>1630616685265</v>
+      <c r="J82" s="1">
+        <v>44440.513344907406</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -6714,37 +7057,41 @@
       <c r="M82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="2">
+        <f t="shared" si="1"/>
+        <v>20.034500000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B83">
-        <v>154381</v>
+        <v>4641339</v>
       </c>
       <c r="C83">
-        <v>12837682</v>
+        <v>128869580</v>
       </c>
       <c r="D83">
         <v>-1</v>
       </c>
       <c r="E83">
-        <v>82.97</v>
+        <v>114.3926</v>
       </c>
       <c r="F83">
-        <v>0.60260000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="G83">
-        <v>49.997700000000002</v>
+        <v>24.022400000000001</v>
       </c>
       <c r="H83">
-        <v>7.6650000000000006E-5</v>
+        <v>3.6739999999999997E-5</v>
       </c>
       <c r="I83" t="s">
         <v>134</v>
       </c>
-      <c r="J83">
-        <v>1630720130785</v>
+      <c r="J83" s="1">
+        <v>44441.23609953704</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -6755,37 +7102,41 @@
       <c r="M83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="2">
+        <f t="shared" si="1"/>
+        <v>-24.022400000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B84">
-        <v>166577</v>
+        <v>4722277</v>
       </c>
       <c r="C84">
-        <v>13477617</v>
+        <v>129811338</v>
       </c>
       <c r="D84">
         <v>-1</v>
       </c>
       <c r="E84">
-        <v>92.8</v>
+        <v>128.82</v>
       </c>
       <c r="F84">
-        <v>0.60260000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="G84">
-        <v>55.921199999999999</v>
+        <v>27.052199999999999</v>
       </c>
       <c r="H84">
-        <v>9.098E-5</v>
+        <v>4.1669999999999999E-5</v>
       </c>
       <c r="I84" t="s">
         <v>134</v>
       </c>
-      <c r="J84">
-        <v>1630805594502</v>
+      <c r="J84" s="1">
+        <v>44441.878298611111</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -6796,78 +7147,86 @@
       <c r="M84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="2">
+        <f t="shared" si="1"/>
+        <v>27.052199999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B85">
-        <v>101927</v>
+        <v>882619</v>
       </c>
       <c r="C85">
-        <v>17362337</v>
+        <v>21958800</v>
       </c>
       <c r="D85">
-        <v>-1</v>
+        <v>219499</v>
       </c>
       <c r="E85">
-        <v>1.0301</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="F85">
-        <v>48.53</v>
+        <v>60</v>
       </c>
       <c r="G85">
-        <v>49.990699999999997</v>
+        <v>27.84</v>
       </c>
       <c r="H85">
-        <v>4.8529999999999997E-2</v>
+        <v>4.1820000000000003E-5</v>
       </c>
       <c r="I85" t="s">
-        <v>178</v>
-      </c>
-      <c r="J85">
-        <v>1629758301603</v>
+        <v>134</v>
+      </c>
+      <c r="J85" s="1">
+        <v>44446.081099537034</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="2">
+        <f t="shared" si="1"/>
+        <v>-27.84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B86">
-        <v>117563</v>
+        <v>154381</v>
       </c>
       <c r="C86">
-        <v>21107793</v>
+        <v>12837682</v>
       </c>
       <c r="D86">
         <v>-1</v>
       </c>
       <c r="E86">
-        <v>0.89470000000000005</v>
+        <v>82.97</v>
       </c>
       <c r="F86">
-        <v>22.35</v>
+        <v>0.60260000000000002</v>
       </c>
       <c r="G86">
-        <v>19.996500000000001</v>
+        <v>49.997700000000002</v>
       </c>
       <c r="H86">
-        <v>3.1409999999999999E-5</v>
+        <v>7.6650000000000006E-5</v>
       </c>
       <c r="I86" t="s">
         <v>134</v>
       </c>
-      <c r="J86">
-        <v>1630352358647</v>
+      <c r="J86" s="1">
+        <v>44443.075578703705</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -6878,45 +7237,176 @@
       <c r="M86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="2">
+        <f t="shared" si="1"/>
+        <v>-49.997700000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B87">
-        <v>126296</v>
+        <v>166577</v>
       </c>
       <c r="C87">
-        <v>23114734</v>
+        <v>13477617</v>
       </c>
       <c r="D87">
         <v>-1</v>
       </c>
       <c r="E87">
-        <v>0.92430000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="F87">
-        <v>32.450000000000003</v>
+        <v>0.60260000000000002</v>
       </c>
       <c r="G87">
-        <v>29.993500000000001</v>
+        <v>55.921199999999999</v>
       </c>
       <c r="H87">
-        <v>4.587E-5</v>
+        <v>9.098E-5</v>
       </c>
       <c r="I87" t="s">
         <v>134</v>
       </c>
-      <c r="J87">
-        <v>1630676695769</v>
+      <c r="J87" s="1">
+        <v>44444.064745370371</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87" s="2">
+        <f t="shared" si="1"/>
+        <v>55.921199999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88">
+        <v>101927</v>
+      </c>
+      <c r="C88">
+        <v>17362337</v>
+      </c>
+      <c r="D88">
+        <v>-1</v>
+      </c>
+      <c r="E88">
+        <v>1.0301</v>
+      </c>
+      <c r="F88">
+        <v>48.53</v>
+      </c>
+      <c r="G88">
+        <v>49.990699999999997</v>
+      </c>
+      <c r="H88">
+        <v>4.8529999999999997E-2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>178</v>
+      </c>
+      <c r="J88" s="1">
+        <v>44431.943298611113</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89">
+        <v>117563</v>
+      </c>
+      <c r="C89">
+        <v>21107793</v>
+      </c>
+      <c r="D89">
+        <v>-1</v>
+      </c>
+      <c r="E89">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="F89">
+        <v>22.35</v>
+      </c>
+      <c r="G89">
+        <v>19.996500000000001</v>
+      </c>
+      <c r="H89">
+        <v>3.1409999999999999E-5</v>
+      </c>
+      <c r="I89" t="s">
+        <v>134</v>
+      </c>
+      <c r="J89" s="1">
+        <v>44438.818958333337</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90">
+        <v>126296</v>
+      </c>
+      <c r="C90">
+        <v>23114734</v>
+      </c>
+      <c r="D90">
+        <v>-1</v>
+      </c>
+      <c r="E90">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="F90">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="G90">
+        <v>29.993500000000001</v>
+      </c>
+      <c r="H90">
+        <v>4.587E-5</v>
+      </c>
+      <c r="I90" t="s">
+        <v>134</v>
+      </c>
+      <c r="J90" s="1">
+        <v>44442.572858796295</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
         <v>1</v>
       </c>
     </row>
